--- a/data/trans_orig/IP1018-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF47942B-4CD0-4555-84D4-C57FF75EEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A959205-3DC6-4FC1-B1DB-FA5F449B1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F0A80613-EF8F-42F8-A979-951BEEB65FF9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{52E72833-D006-4F7E-AFA4-8CD1DD1E5742}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,45 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -121,9 +160,6 @@
     <t>98,76%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
     <t>99,04%</t>
   </si>
   <si>
@@ -142,48 +178,12 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -241,18 +241,18 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -298,6 +298,18 @@
     <t>0,73%</t>
   </si>
   <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>97,9%</t>
   </si>
   <si>
@@ -332,18 +344,6 @@
   </si>
   <si>
     <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9980427D-1AA6-4EC8-B570-67C109E6B10D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F50A2AE-3B47-41D7-A886-F394F8BD5BB9}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1044,10 +1044,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="D7" s="7">
-        <v>280254</v>
+        <v>217362</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>264949</v>
+        <v>204502</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>813</v>
+        <v>632</v>
       </c>
       <c r="N7" s="7">
-        <v>545203</v>
+        <v>421864</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1086,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,49 +1095,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1244</v>
+        <v>679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>654</v>
+        <v>720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1399</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1898</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1146,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1161,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1176,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1193,55 +1193,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>217362</v>
+        <v>280254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="I10" s="7">
-        <v>204502</v>
+        <v>264949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>813</v>
       </c>
       <c r="N10" s="7">
-        <v>421864</v>
+        <v>545203</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,28 +1250,28 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>679</v>
+        <v>1244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>720</v>
+        <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
@@ -1280,16 +1280,16 @@
         <v>45</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1399</v>
+        <v>1898</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -1301,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1316,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1331,10 +1331,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1517,7 +1517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B87DCE3-D703-4D89-904E-C26479943F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5775ED6D-A5C1-4A35-A996-A15ACB0E4B6A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1790,10 +1790,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1805,31 +1805,31 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I7" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N7" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1868,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1907,10 +1907,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1922,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1939,16 +1939,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1960,31 +1960,31 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N10" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2023,7 +2023,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2062,10 +2062,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2077,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2263,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F285CAA-1C55-454A-92D1-2A55B88D9878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE0B2F-75C6-492D-B248-0ACCF304A246}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2536,49 +2536,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>279953</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="I7" s="7">
-        <v>267132</v>
+        <v>234750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="N7" s="7">
-        <v>547085</v>
+        <v>484802</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2587,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2314</v>
+        <v>583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,10 +2638,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2653,10 +2653,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2668,10 +2668,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2685,55 +2685,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>279953</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="I10" s="7">
-        <v>234750</v>
+        <v>267132</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="N10" s="7">
-        <v>484802</v>
+        <v>547085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,46 +2742,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>583</v>
+        <v>2314</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>101</v>
@@ -2793,10 +2793,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2808,10 +2808,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2823,10 +2823,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2882,7 +2882,7 @@
         <v>1445715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>107</v>
@@ -2933,7 +2933,7 @@
         <v>3500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>111</v>

--- a/data/trans_orig/IP1018-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A959205-3DC6-4FC1-B1DB-FA5F449B1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1F9D0C-1E0B-4907-8C39-365E13A41D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{52E72833-D006-4F7E-AFA4-8CD1DD1E5742}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0760DFC4-30F8-466B-9427-73216B09BD36}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="136">
   <si>
     <t>Menores según si padecen problemas de riñón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,310 +94,358 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
   </si>
 </sst>
 </file>
@@ -390,7 +456,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -486,39 +552,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -570,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -681,13 +747,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -696,6 +755,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -760,19 +826,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F50A2AE-3B47-41D7-A886-F394F8BD5BB9}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BEC60C-1D72-4DD1-8845-F8DE0044AD11}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -889,10 +975,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -904,34 +990,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -940,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -955,34 +1041,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -991,49 +1077,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1044,49 +1130,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>217362</v>
+        <v>679</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>204502</v>
+        <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>421864</v>
+        <v>1399</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,49 +1181,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>679</v>
+        <v>253077</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>378</v>
+      </c>
+      <c r="I8" s="7">
+        <v>252485</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>720</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>759</v>
+      </c>
+      <c r="N8" s="7">
+        <v>505562</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1399</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1146,102 +1232,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>280254</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>654</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>654</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>393</v>
-      </c>
-      <c r="I10" s="7">
-        <v>264949</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>813</v>
-      </c>
-      <c r="N10" s="7">
-        <v>545203</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,49 +1336,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>1244</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>190</v>
+      </c>
+      <c r="I11" s="7">
+        <v>126894</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>402</v>
+      </c>
+      <c r="N11" s="7">
+        <v>268409</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>654</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1898</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,102 +1387,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1083</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>720777</v>
+        <v>1244</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1244</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I13" s="7">
-        <v>679647</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1400425</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,49 +1491,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="D14" s="7">
-        <v>1923</v>
+        <v>204805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>1374</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>3296</v>
+        <v>398902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,55 +1542,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1923</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1374</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3296</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1083</v>
+      </c>
+      <c r="D17" s="7">
+        <v>720777</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679647</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2099</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1400425</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1517,8 +1764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5775ED6D-A5C1-4A35-A996-A15ACB0E4B6A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6DE417-0D9E-4AB6-B747-8F9DF9824973}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1534,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1635,10 +1882,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1647,13 +1894,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1662,22 +1909,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,49 +1933,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,49 +1984,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,49 +2037,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>228178</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>468278</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,49 +2088,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>234476</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>501576</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,102 +2139,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>270354</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>524556</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,49 +2243,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>313405</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,102 +2294,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>748142</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>706928</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1455070</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,49 +2398,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>177957</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>349294</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,55 +2449,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N17" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1066</v>
+      </c>
+      <c r="D18" s="7">
+        <v>748142</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2084</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1455070</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2263,8 +2671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE0B2F-75C6-492D-B248-0ACCF304A246}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF4FF6-2D82-4629-93C2-10052DF1C3F2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2280,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,49 +2789,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>604</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>604</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>325</v>
-      </c>
-      <c r="I4" s="7">
-        <v>200664</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>646</v>
-      </c>
-      <c r="N4" s="7">
-        <v>413827</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2840,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>210</v>
+      </c>
+      <c r="I5" s="7">
+        <v>131050</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>397</v>
+      </c>
+      <c r="N5" s="7">
+        <v>255214</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>604</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>604</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,49 +2891,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2944,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>234750</v>
+        <v>583</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
-        <v>722</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>484802</v>
+        <v>583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2995,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>583</v>
+        <v>209934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="N8" s="7">
-        <v>583</v>
+        <v>467995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,102 +3046,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>279953</v>
+        <v>1088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>267132</v>
+        <v>638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
-        <v>753</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>547085</v>
+        <v>1726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +3150,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="D11" s="7">
-        <v>1676</v>
+        <v>187484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>638</v>
+        <v>188261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>2314</v>
+        <v>375745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,102 +3201,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1063</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>743168</v>
+        <v>588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
-        <v>1058</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>702547</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>2121</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1445715</v>
+        <v>588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,49 +3305,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>1676</v>
+        <v>173460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>1824</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="N14" s="7">
-        <v>3500</v>
+        <v>346760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,55 +3356,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1676</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1824</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3500</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="D17" s="7">
+        <v>743168</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1058</v>
+      </c>
+      <c r="I17" s="7">
+        <v>702547</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2121</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1445715</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1018-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1F9D0C-1E0B-4907-8C39-365E13A41D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8135D34-5B50-4C64-B68A-5170B98DACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0760DFC4-30F8-466B-9427-73216B09BD36}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{248D2A9C-A267-4203-A675-2B64D0585EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
   <si>
     <t>Menores según si padecen problemas de riñón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,340 +112,346 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>99,41%</t>
   </si>
 </sst>
 </file>
@@ -857,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BEC60C-1D72-4DD1-8845-F8DE0044AD11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB742DD-D025-4E80-87AA-C9ACC210E6C2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1637,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,10 +1661,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -1667,10 +1673,10 @@
         <v>679647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1682,13 +1688,13 @@
         <v>1400425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,7 +1750,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6DE417-0D9E-4AB6-B747-8F9DF9824973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A69841-E054-4BFE-B023-F7C6E8D6147B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1894,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1909,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1924,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -1957,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1972,7 +1978,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2049,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2064,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2097,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2112,7 +2118,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2204,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2219,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2234,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2544,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2577,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2592,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2651,7 +2657,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF4FF6-2D82-4629-93C2-10052DF1C3F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EA1F44-3D60-4241-B4BA-17F462772397}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2688,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2801,7 +2807,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2810,13 +2816,13 @@
         <v>604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2831,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2861,10 +2867,10 @@
         <v>131050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2879,7 +2885,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2956,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2971,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2980,13 +2986,13 @@
         <v>583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3019,7 +3025,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3031,10 +3037,10 @@
         <v>467995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3105,13 +3111,13 @@
         <v>1088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3120,13 +3126,13 @@
         <v>638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3135,13 +3141,13 @@
         <v>1726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,10 +3162,10 @@
         <v>187484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3171,10 +3177,10 @@
         <v>188261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3186,10 +3192,10 @@
         <v>375745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3260,13 +3266,13 @@
         <v>588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3290,13 +3296,13 @@
         <v>588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,10 +3317,10 @@
         <v>173460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3329,7 +3335,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3341,10 +3347,10 @@
         <v>346760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3415,13 +3421,13 @@
         <v>1676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3430,10 +3436,10 @@
         <v>1824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>56</v>
@@ -3448,10 +3454,10 @@
         <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3472,10 @@
         <v>743168</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3481,13 +3487,13 @@
         <v>702547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>2121</v>
@@ -3499,10 +3505,10 @@
         <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3564,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1018-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8135D34-5B50-4C64-B68A-5170B98DACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36D61C1-88AB-4E73-A8D8-2A7AFDE5DFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{248D2A9C-A267-4203-A675-2B64D0585EDC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{2EEDECCC-0173-4F37-907A-C069F8934AF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="140">
   <si>
     <t>Menores según si padecen problemas de riñón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,364 +94,370 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
 </sst>
 </file>
@@ -863,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB742DD-D025-4E80-87AA-C9ACC210E6C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62620846-0A8F-49BC-A13D-E891CF8569B5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1032,10 +1038,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1047,10 +1053,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1083,25 +1089,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1139,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>679</v>
+        <v>720</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1154,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1172,7 +1178,7 @@
         <v>1399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -1187,10 +1193,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>253077</v>
+        <v>252485</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
@@ -1202,10 +1208,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I8" s="7">
-        <v>252485</v>
+        <v>253077</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>30</v>
@@ -1223,7 +1229,7 @@
         <v>505562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
@@ -1238,25 +1244,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1291,31 +1297,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>654</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>36</v>
@@ -1342,34 +1348,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>190</v>
+      </c>
+      <c r="D11" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141515</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>190</v>
-      </c>
-      <c r="I11" s="7">
-        <v>126894</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -1393,25 +1399,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1446,31 +1452,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1244</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>47</v>
@@ -1497,34 +1503,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>286</v>
+      </c>
+      <c r="D14" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>308</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>204805</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <v>194097</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
@@ -1548,25 +1554,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1601,31 +1607,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1923</v>
+        <v>1374</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1374</v>
+        <v>1923</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>58</v>
@@ -1652,34 +1658,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679647</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1083</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>720777</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679647</v>
-      </c>
       <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2099</v>
@@ -1703,25 +1709,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1770,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A69841-E054-4BFE-B023-F7C6E8D6147B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E211FC-D0FA-44FA-8E84-EFB9ACB7CE00}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1939,10 +1945,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
-        <v>144513</v>
+        <v>146281</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1954,10 +1960,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>146281</v>
+        <v>144513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1990,25 +1996,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2085,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,10 +2100,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>267101</v>
+        <v>234476</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2109,10 +2115,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="I8" s="7">
-        <v>234476</v>
+        <v>267101</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -2133,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2145,25 +2151,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2210,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2225,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2240,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,31 +2255,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154834</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2288,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2300,25 +2306,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2365,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2380,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2395,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,31 +2410,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>262</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177957</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2443,7 +2449,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2455,25 +2461,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2520,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2535,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2550,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,31 +2565,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1066</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>748142</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706928</v>
-      </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2598,7 +2604,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2610,25 +2616,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2677,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EA1F44-3D60-4241-B4BA-17F462772397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1A198D-E46B-420F-AE6A-DEF3EED74601}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2795,34 +2801,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>604</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2837,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,34 +2852,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131050</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>210</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131050</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -2885,7 +2891,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2897,25 +2903,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2950,34 +2956,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>583</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2986,13 +2992,13 @@
         <v>583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,34 +3007,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>331</v>
+      </c>
+      <c r="D8" s="7">
+        <v>209934</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>258061</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>331</v>
-      </c>
-      <c r="I8" s="7">
-        <v>209934</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -3037,10 +3043,10 @@
         <v>467995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3052,25 +3058,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3108,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1088</v>
+        <v>638</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>114</v>
@@ -3123,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>638</v>
+        <v>1088</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>116</v>
@@ -3141,7 +3147,7 @@
         <v>1726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -3156,10 +3162,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>187484</v>
+        <v>188261</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>119</v>
@@ -3171,10 +3177,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I11" s="7">
-        <v>188261</v>
+        <v>187484</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>121</v>
@@ -3192,7 +3198,7 @@
         <v>375745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>123</v>
@@ -3207,25 +3213,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3260,34 +3266,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3296,13 +3302,13 @@
         <v>588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,34 +3317,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>173460</v>
+        <v>173301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>173301</v>
+        <v>173460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3347,10 +3353,10 @@
         <v>346760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3362,25 +3368,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3415,34 +3421,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1676</v>
+        <v>1824</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1824</v>
+        <v>1676</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3454,10 +3460,10 @@
         <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,34 +3472,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D17" s="7">
+        <v>702547</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="7">
         <v>1063</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>743168</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I17" s="7">
-        <v>702547</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2121</v>
@@ -3505,10 +3511,10 @@
         <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,25 +3523,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
